--- a/Testcases.xlsx
+++ b/Testcases.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="446">
   <si>
     <t>Tecase Id</t>
   </si>
@@ -1574,6 +1574,9 @@
   </si>
   <si>
     <t>TC01_Modify skills _specific field s should be allowed by Admin user only</t>
+  </si>
+  <si>
+    <t>dfsdgdfshgfjh</t>
   </si>
 </sst>
 </file>
@@ -2436,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2901,6 +2904,11 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>445</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
